--- a/ncp-gop-transect-summer-2018/gop-transect-en617.xlsx
+++ b/ncp-gop-transect-summer-2018/gop-transect-en617.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="ColumnHeaders" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>attributeName</t>
   </si>
@@ -53,33 +53,21 @@
     <t>missingValueCodeExplanation</t>
   </si>
   <si>
-    <t>Date and time in UTC</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
     <t>YYYY-MM-DD hh:mm:ss</t>
   </si>
   <si>
-    <t>UTC date and time in MATLAB serial date number format</t>
-  </si>
-  <si>
     <t>numeric</t>
   </si>
   <si>
     <t>dimensionless</t>
   </si>
   <si>
-    <t>Latitude of sample event</t>
-  </si>
-  <si>
     <t>degree</t>
   </si>
   <si>
-    <t>Longitude of sample event</t>
-  </si>
-  <si>
     <t>gop</t>
   </si>
   <si>
@@ -110,12 +98,6 @@
     <t>datetime_utc_matlab</t>
   </si>
   <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
     <t>toi_source</t>
   </si>
   <si>
@@ -126,23 +108,46 @@
   </si>
   <si>
     <t>millimoleOxygenPerMeterSquaredPerDay</t>
+  </si>
+  <si>
+    <t>Data product UTC date and time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI-provided UTC date and time </t>
+  </si>
+  <si>
+    <t>latitude_matlab</t>
+  </si>
+  <si>
+    <t>Latitude of sample event provided by PI</t>
+  </si>
+  <si>
+    <t>longitude_matlab</t>
+  </si>
+  <si>
+    <t>Longitude of sample event provided by PI</t>
+  </si>
+  <si>
+    <t>latitude_API</t>
+  </si>
+  <si>
+    <t>Latitude of sample event provided by NES-LTER API</t>
+  </si>
+  <si>
+    <t>longitude_API</t>
+  </si>
+  <si>
+    <t>Longitude of sample event provided by NES-LTER API</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -168,12 +173,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A4" sqref="A4:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -526,129 +530,157 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
       </c>
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/ncp-gop-transect-summer-2018/gop-transect-en617.xlsx
+++ b/ncp-gop-transect-summer-2018/gop-transect-en617.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>attributeName</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t>Longitude of sample event provided by NES-LTER API</t>
+  </si>
+  <si>
+    <t>cruise</t>
+  </si>
+  <si>
+    <t>Identifier for research cruise generally including abbreviation for research vessel and voyage number</t>
+  </si>
+  <si>
+    <t>character</t>
   </si>
 </sst>
 </file>
@@ -492,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -530,52 +539,49 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -586,10 +592,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -600,10 +606,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -614,41 +620,35 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -665,21 +665,41 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
         <v>14</v>
       </c>
     </row>

--- a/ncp-gop-transect-summer-2018/gop-transect-en617.xlsx
+++ b/ncp-gop-transect-summer-2018/gop-transect-en617.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>attributeName</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>character</t>
+  </si>
+  <si>
+    <t>iode_quality_flag</t>
+  </si>
+  <si>
+    <t>flag</t>
   </si>
 </sst>
 </file>
@@ -501,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -703,6 +709,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ncp-gop-transect-summer-2018/gop-transect-en617.xlsx
+++ b/ncp-gop-transect-summer-2018/gop-transect-en617.xlsx
@@ -12,9 +12,10 @@
     <workbookView xWindow="876" yWindow="1464" windowWidth="24636" windowHeight="13584"/>
   </bookViews>
   <sheets>
-    <sheet name="ColumnHeaders" sheetId="1" r:id="rId1"/>
+    <sheet name="CategoricalVariables" sheetId="2" r:id="rId1"/>
+    <sheet name="ColumnHeaders" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
   <si>
     <t>attributeName</t>
   </si>
@@ -152,7 +153,40 @@
     <t>iode_quality_flag</t>
   </si>
   <si>
-    <t>flag</t>
+    <t>IODE Quality Flag primary level</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>definition</t>
+  </si>
+  <si>
+    <t>toi_niskin</t>
+  </si>
+  <si>
+    <t>sample bottle was filled from a Niskin bottle on CTD rosette</t>
+  </si>
+  <si>
+    <t>toi_underway</t>
+  </si>
+  <si>
+    <t>sample bottle was filled from the ship's underway system</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>quality not evaluated, not available or unknown</t>
+  </si>
+  <si>
+    <t>questionable/suspect</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>missing data</t>
   </si>
 </sst>
 </file>
@@ -507,10 +541,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
